--- a/整理后.xlsx
+++ b/整理后.xlsx
@@ -438,7 +438,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>接触人员名字</t>
+          <t>学生与接触人员关系</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>接触人员名字</t>
+          <t>学生与接触人员关系</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">

--- a/整理后.xlsx
+++ b/整理后.xlsx
@@ -349,7 +349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -382,12 +382,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>三年级五班</t>
+          <t>二年级六班</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>咕咕鸡</t>
+          <t>洪安安</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -397,7 +397,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>扁桃体发炎</t>
+          <t>感冒，流鼻涕</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>二年级六班</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>毛键承</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>感冒，流鼻涕</t>
         </is>
       </c>
     </row>
@@ -412,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,22 +472,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>三年级五班</t>
+          <t>二年级六班</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>公牛先生</t>
+          <t>毛予涵</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.16–5.17</t>
+          <t>2020年5月17日</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>狗爷爷</t>
+          <t>妈妈</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -477,27 +499,54 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>三年级五班</t>
+          <t>二年级六班</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>咕咕鸡</t>
+          <t>赵睿轩</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20205月16号</t>
+          <t>5月16日</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>小猪乔治</t>
+          <t>爷爷</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>江西玉山</t>
+          <t>上海</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>二年级六班</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>琚刘丽</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5月16日</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>外公外婆</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>福建</t>
         </is>
       </c>
     </row>
@@ -558,7 +607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,7 +655,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>小猪佩奇</t>
+          <t>徐元昊</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -633,44 +682,44 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>二年级一班</t>
+          <t>二年级四班</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>小羊苏西</t>
+          <t>毛一诺</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>周五发热</t>
+          <t>否</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>否</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>否</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>发烧</t>
+          <t>在家休养</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>三年级三班</t>
+          <t>二年级二班</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>汪汪队</t>
+          <t>秦珊</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -690,19 +739,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>肚子痛，大便难拉</t>
+          <t>在家休养</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>二年级十班</t>
+          <t>二年级二班</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>小狗丹尼</t>
+          <t>丰枭龙</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -722,51 +771,47 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>到杭州检查发育过早的问题</t>
+          <t>流鼻涕，喉咙哑</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>三年级八班</t>
+          <t>一年级六班</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>小马佩德罗</t>
+          <t>吴芷萱</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>是</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>否</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>扁桃体发炎</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>三年级五班</t>
+          <t>四年级七班</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>咕咕鸡</t>
+          <t>叶润</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -786,51 +831,51 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>扁桃体发炎</t>
+          <t>积食</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>五年级佩奇乐园</t>
+          <t>二年级一班</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>猪爸爸</t>
+          <t>毛祺勋</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>周五发热</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>无</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5月4日，在家摔伤住院后，现在家卧床休养。</t>
+          <t>发烧</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>四年级四班</t>
+          <t>二年级三班</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>猪妈妈</t>
+          <t>柴婧茹</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -850,7 +895,855 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>出鼻血，头晕</t>
+          <t>流鼻涕</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>二年级三班</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>余明轩</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>喉咙痛</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>二年级三班</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>张晴晴</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>有几声咳嗽</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>二年级三班</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>陈梓涵</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>流鼻涕</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>二年级十班</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>范可欣</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>到杭州检查发育过早的问题</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>二年级十班</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>徐忆馨</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>咳嗽</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>二年级十班</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>姜浩一</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>流涕</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>一年级三班</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>王鹏宇</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>王鹏宇5月17日开始咳嗽</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>三年级中心亭</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>毛轶轩</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>咳嗽、喉咙痛</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>三年级一班</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>余宇炫</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>二年级九班</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>孙林宜</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>在家休养，已通过核酸检测</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>二年级九班</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>姜硕成</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>脖子扭到</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>六年级一班</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>黄梓艺</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>事假</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>二年级五班</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>毛佳楠</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>感冒流鼻涕</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>二年级六班</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>洪安安</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>感冒流鼻涕</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>二年级六班</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>毛键承</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>感冒，流鼻涕</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>三年级八班</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>郑浩泽</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>扁桃体发炎</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>三年级八班</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>严心彤</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>流鼻涕，喉咙发炎</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>三年级八班</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>练璟煜</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>嗓子沙哑，鼻塞</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>三年级五班</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>张逸轩</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>头痛</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>三年级五班</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>周妙希</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>肚子痛</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>三年级三班</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>童泽睿</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>肚子痛，大便难拉</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>三年级三班</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>徐子宸</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>喉咙不舒服</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>四年级三班</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>余珂铭</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>闹情绪</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>三年级七班</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>陈紫烯</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>周六吃西瓜吃坏肚子，呕吐一次，周日上午9点左右发烧，核酸检测阴性。今天不发烧不呕吐，在家观察。</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>五年级一班</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>吴雨霏</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>不想来学校读书</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>五年级七班</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>王嘉阳</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>准备转学去湖南少林文武学校就读</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>五年级中心亭</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>蓝慧子</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5月4日，在家摔伤住院后，现在家卧床休养。</t>
         </is>
       </c>
     </row>
@@ -943,43 +1836,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>机器人社</t>
+          <t>新世纪学校</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2024</v>
       </c>
       <c r="C2" t="n">
-        <v>2016</v>
+        <v>1989</v>
       </c>
       <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
         <v>8</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>三年级五班咕咕鸡扁桃体发炎</t>
+          <t>二年级六班洪安安感冒，流鼻涕二年级六班毛键承感冒，流鼻涕</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>

--- a/整理后.xlsx
+++ b/整理后.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,17 +433,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>接触时间</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>学生与接触人员关系</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>接触人员去过哪里</t>
+          <t>文字描述</t>
         </is>
       </c>
     </row>
@@ -460,17 +450,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.16–5.17</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>狗爷爷</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>江西</t>
+          <t>公牛先生的爸爸5月19日上海回来</t>
         </is>
       </c>
     </row>
@@ -487,17 +467,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20205月16号</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>小猪乔治</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>江西玉山</t>
+          <t>咕咕鸡的爸爸5月19日上海回来</t>
         </is>
       </c>
     </row>
@@ -512,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,17 +503,24 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>接触时间</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>学生与接触人员关系</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>接触人员去过哪里</t>
+          <t>文字描述</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>三年级五班</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5月16日到江西上饶</t>
         </is>
       </c>
     </row>
@@ -865,7 +842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,6 +916,11 @@
           <t>家长接触重点疫区、境外登记人数总数</t>
         </is>
       </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>乘坐公交车学生人数</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -975,14 +957,18 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>三年级五班咕咕鸡扁桃体发炎</t>
+          <t xml:space="preserve">三年级五班咕咕鸡扁桃体发炎
+</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>946</v>
       </c>
     </row>
   </sheetData>

--- a/整理后.xlsx
+++ b/整理后.xlsx
@@ -349,7 +349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,28 +376,6 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>晨检异常情况描述</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>三年级五班</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>咕咕鸡</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>扁桃体发炎</t>
         </is>
       </c>
     </row>
@@ -438,36 +416,28 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>三年级五班</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>公牛先生</t>
+          <t>余洋</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>公牛先生的爸爸5月19日上海回来</t>
+          <t>余洋爸爸5月17日接触过福建客户</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>三年级五班</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>咕咕鸡</t>
+          <t>吾雨萱</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>咕咕鸡的爸爸5月19日上海回来</t>
+          <t>外婆5.18从辽宁来</t>
         </is>
       </c>
     </row>
@@ -482,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,23 +474,6 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>文字描述</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>三年级五班</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>李四</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5月16日到江西上饶</t>
         </is>
       </c>
     </row>
@@ -535,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,12 +531,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>二年级四班</t>
+          <t>二年级二班</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>小猪佩奇</t>
+          <t>秦珊</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -603,56 +556,56 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>喉咙痛</t>
+          <t>在家休养</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>二年级一班</t>
+          <t>二年级二班</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>小羊苏西</t>
+          <t>丰枭龙</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>周五发热</t>
+          <t>否</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>否</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>否</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>发烧</t>
+          <t>流鼻涕，喉咙哑</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>三年级三班</t>
+          <t>二年级二班</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>汪汪队</t>
+          <t>胡琳析</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -667,63 +620,63 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>肚子痛，大便难拉</t>
+          <t>昨天晚上发烧，已就医，今天在家休养</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>二年级十班</t>
+          <t>二年级一班</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>小狗丹尼</t>
+          <t>毛祺勋</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>无</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>无</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>无</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>到杭州检查发育过早的问题</t>
+          <t>周五发烧，待观察</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>三年级八班</t>
+          <t>二年级一班</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>小马佩德罗</t>
+          <t>毛程锴</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>是</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>否</t>
@@ -731,19 +684,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>扁桃体发炎</t>
+          <t>流鼻涕咳嗽</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>三年级五班</t>
+          <t>二年级一班</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>咕咕鸡</t>
+          <t>周俊善</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -763,19 +716,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>扁桃体发炎</t>
+          <t>流鼻涕</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>五年级佩奇乐园</t>
+          <t>一年级六班</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>猪爸爸</t>
+          <t>吴芷萱</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -785,7 +738,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -793,21 +746,17 @@
           <t>否</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5月4日，在家摔伤住院后，现在家卧床休养。</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>四年级四班</t>
+          <t>一年级六班</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>猪妈妈</t>
+          <t>汪青云</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -817,7 +766,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -825,9 +774,1313 @@
           <t>否</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>出鼻血，头晕</t>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>三年级一班</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>余宇炫</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>二年级九班</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>孙林宜</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>在家休养，已通过核酸检测</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>五年级一班</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>金钰航</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>流鼻涕打喷嚏</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>二年级三班</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>柴婧茹</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>流鼻涕</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>二年级三班</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>余明轩</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>喉咙痛</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>二年级三班</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>张晴晴</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>有几声咳嗽</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>二年级三班</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>陈梓涵</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>流鼻涕</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>二年级三班</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>吕品萱</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>有点鼻塞</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>二年级三班</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>傅钰曦</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>有点流鼻涕</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>二年级四班</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>徐元昊</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>在家休养</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>一年级三班</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>王鹏宇</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>王鹏宇5月17日开始咳嗽</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>二年级十班</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>范可欣</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>到杭州检查发育过早的问题</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>二年级十班</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>徐忆馨</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>咳嗽</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>二年级十班</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>姜浩一</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>流涕</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>三年级八班</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>郑浩泽</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>扁桃体发炎</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>三年级八班</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>严心彤</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>流鼻涕，喉咙发炎</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>三年级八班</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>练璟煜</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>嗓子沙哑，鼻塞</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>三年级八班</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>毛智炫</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>流鼻涕</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>三年级八班</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>周景昊</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>流鼻涕，嗓子哑</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>四年级一班</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>徐子涵</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>体温正常，有点鼻塞。</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>四年级一班</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>韩君鹏</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>体温正常，有点鼻塞。</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>三年级七班</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>陈紫烯</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>周六吃西瓜吃坏肚子，呕吐一次，周日上午9点左右发烧，核酸检测阴性。今天不发烧不呕吐，在家观察。</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>五年级七班</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>王嘉阳</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>准备转学去湖南少林文武学校就读</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>一年级四班</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>徐睿</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>早上上学被车子撞到，上医院就诊</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>二年级八班</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>徐子睿</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>咳嗽</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>感冒咳嗽</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>三年级五班</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>张逸轩</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>头痛</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>三年级五班</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>周妙希</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>肚子痛</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>三年级五班</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>王紫依</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>喉咙痛</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>三年级五班</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>陈洁</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>昨天头晕，今天在家休息</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>三年级五班</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>王雨涵</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>咽喉痛</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>三年级五班</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>孙淼</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>昨天头晕，今天在家休息</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>三年级五班</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>周逸</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>咳嗽</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>三年级五班</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>吴涵伊</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>昨天头痛今天在家休息</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>三年级中心亭</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>毛轶轩</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>咳嗽、喉咙痛</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>二年级五班</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>毛佳楠</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>感冒流鼻涕</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>二年级五班</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>何姝静</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>咳嗽</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>咳嗽</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>二年级六班</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>洪安安</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>感冒流鼻涕</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>一年级一班</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>周恬逸</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>感冒低热</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>三年级四班</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>吴海程</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>肚子疼</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>五年级中心亭</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>蓝慧子</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5月4日，在家摔伤住院后，现在家卧床休养。</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>四年级七班</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>叶润</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>积食</t>
         </is>
       </c>
     </row>
@@ -932,43 +2185,38 @@
         <v>2024</v>
       </c>
       <c r="C2" t="n">
-        <v>2016</v>
+        <v>1975</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" t="n">
+        <v>32</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">三年级五班咕咕鸡扁桃体发炎
-</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
         <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>946</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/整理后.xlsx
+++ b/整理后.xlsx
@@ -383,11 +383,19 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>呃呃呃</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>旺旺</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -400,7 +408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,6 +430,19 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>文字描述</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>哎哎</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>发广告刚刚好</t>
         </is>
       </c>
     </row>
@@ -436,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +479,19 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>文字描述</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>是是是</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>呃呃呃</t>
         </is>
       </c>
     </row>
@@ -472,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,55 +550,27 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>周星宇</t>
+          <t>呃呃呃</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>三生三世</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>昨天有拉肚子，今天在家休息。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>王煜阳</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>军训不舒服，在家休息</t>
+          <t>滚滚滚</t>
         </is>
       </c>
     </row>
@@ -579,13 +585,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9.199999999999999" customWidth="1" min="1" max="1"/>
+    <col width="46.69999999999999" customWidth="1" min="2" max="2"/>
+    <col width="11.5" customWidth="1" min="3" max="3"/>
+    <col width="13.8" customWidth="1" min="4" max="4"/>
+    <col width="9.199999999999999" customWidth="1" min="5" max="5"/>
+    <col width="32.2" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="20.4" customWidth="1" min="8" max="8"/>
+    <col width="39.8" customWidth="1" min="9" max="9"/>
+    <col width="34.2" customWidth="1" min="10" max="10"/>
+    <col width="29.6" customWidth="1" min="11" max="11"/>
+    <col width="40.8" customWidth="1" min="12" max="12"/>
+    <col width="46.69999999999999" customWidth="1" min="13" max="13"/>
+    <col width="12.5" customWidth="1" min="14" max="14"/>
+    <col width="9.199999999999999" customWidth="1" min="15" max="15"/>
+    <col width="9.199999999999999" customWidth="1" min="16" max="16"/>
+    <col width="9.199999999999999" customWidth="1" min="17" max="17"/>
+    <col width="11.5" customWidth="1" min="18" max="18"/>
+    <col width="31.90000000000001" customWidth="1" min="19" max="19"/>
+    <col width="31.90000000000001" customWidth="1" min="20" max="20"/>
+    <col width="56.19999999999997" customWidth="1" min="21" max="21"/>
+    <col width="20.7" customWidth="1" min="22" max="22"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -595,62 +625,107 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>应到人数</t>
+          <t>数据为后三列之和，即内地学生+港澳台+留学生</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>实到人数</t>
+          <t>内地学生数</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>请假学生登记人数总数</t>
+          <t>港澳台学生数</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>因发热未到或请假</t>
+          <t>留学生数</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>因咳嗽腹泄乏力请假人数</t>
+          <t>合计中的当日校内发热学生人数</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>因其他原因请假人数</t>
+          <t>应到人数（要求到校人数）</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>晨检异常人数总数</t>
+          <t>实到人数（晨检人数）</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>晨检体温异常人数</t>
+          <t>因发热未到或请假（体温37.3或以上）</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>晨检其他异常人数</t>
+          <t>因其他原因未到或请假（除发热外）</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>晨检午检异常描述(文字)</t>
+          <t>校内晨检异常人数（体温异常）</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>学生接触外省人员登记人数总数</t>
+          <t>校内晨检异常其他人数（如：咳嗽、腹泻等）</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>家长接触重点疫区、境外登记人数总数</t>
+          <t>当日校内因发热送检人数（体温37.3或以上）</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>总计</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>绿码人数</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>黄码人数</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>橙码人数</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>未申领人数</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>接触过省外返衢对象的(学生数)</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>接触过境外返衢对象的(学生数)</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>与疫情中高风险地区、境外回衢人员接触的家长人数统计</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>乘坐公交车学生人数</t>
         </is>
       </c>
     </row>
@@ -661,22 +736,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1958</v>
+        <v>1792</v>
       </c>
       <c r="C2" t="n">
-        <v>1956</v>
+        <v>1791</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1790</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1791</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -687,17 +762,29 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">无
-</t>
-        </is>
+      <c r="K2" t="n">
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">呃呃呃旺旺
+</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/整理后.xlsx
+++ b/整理后.xlsx
@@ -349,7 +349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,24 +376,6 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>晨检异常情况描述</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>呃呃呃</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>旺旺</t>
         </is>
       </c>
     </row>
@@ -408,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,19 +412,6 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>文字描述</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>哎哎</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>发广告刚刚好</t>
         </is>
       </c>
     </row>
@@ -457,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,19 +448,6 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>文字描述</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>是是是</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>呃呃呃</t>
         </is>
       </c>
     </row>
@@ -506,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,34 +499,6 @@
       <c r="F1" t="inlineStr">
         <is>
           <t>请假原因</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>呃呃呃</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>三生三世</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>是</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>滚滚滚</t>
         </is>
       </c>
     </row>
@@ -585,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,27 +522,28 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9.199999999999999" customWidth="1" min="1" max="1"/>
-    <col width="46.69999999999999" customWidth="1" min="2" max="2"/>
-    <col width="11.5" customWidth="1" min="3" max="3"/>
-    <col width="13.8" customWidth="1" min="4" max="4"/>
-    <col width="9.199999999999999" customWidth="1" min="5" max="5"/>
-    <col width="32.2" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="20.4" customWidth="1" min="8" max="8"/>
-    <col width="39.8" customWidth="1" min="9" max="9"/>
-    <col width="34.2" customWidth="1" min="10" max="10"/>
-    <col width="29.6" customWidth="1" min="11" max="11"/>
-    <col width="40.8" customWidth="1" min="12" max="12"/>
-    <col width="46.69999999999999" customWidth="1" min="13" max="13"/>
-    <col width="12.5" customWidth="1" min="14" max="14"/>
-    <col width="9.199999999999999" customWidth="1" min="15" max="15"/>
+    <col width="20.7" customWidth="1" min="2" max="2"/>
+    <col width="46.69999999999999" customWidth="1" min="3" max="3"/>
+    <col width="11.5" customWidth="1" min="4" max="4"/>
+    <col width="13.8" customWidth="1" min="5" max="5"/>
+    <col width="9.199999999999999" customWidth="1" min="6" max="6"/>
+    <col width="32.2" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="20.4" customWidth="1" min="9" max="9"/>
+    <col width="39.8" customWidth="1" min="10" max="10"/>
+    <col width="34.2" customWidth="1" min="11" max="11"/>
+    <col width="29.6" customWidth="1" min="12" max="12"/>
+    <col width="40.8" customWidth="1" min="13" max="13"/>
+    <col width="46.69999999999999" customWidth="1" min="14" max="14"/>
+    <col width="13.8" customWidth="1" min="15" max="15"/>
     <col width="9.199999999999999" customWidth="1" min="16" max="16"/>
     <col width="9.199999999999999" customWidth="1" min="17" max="17"/>
-    <col width="11.5" customWidth="1" min="18" max="18"/>
-    <col width="31.90000000000001" customWidth="1" min="19" max="19"/>
-    <col width="31.90000000000001" customWidth="1" min="20" max="20"/>
-    <col width="56.19999999999997" customWidth="1" min="21" max="21"/>
-    <col width="20.7" customWidth="1" min="22" max="22"/>
+    <col width="9.199999999999999" customWidth="1" min="18" max="18"/>
+    <col width="9.199999999999999" customWidth="1" min="19" max="19"/>
+    <col width="11.5" customWidth="1" min="20" max="20"/>
+    <col width="31.90000000000001" customWidth="1" min="21" max="21"/>
+    <col width="31.90000000000001" customWidth="1" min="22" max="22"/>
+    <col width="56.19999999999997" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -625,107 +554,112 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>乘坐公交车学生人数</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>数据为后三列之和，即内地学生+港澳台+留学生</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>内地学生数</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>港澳台学生数</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>留学生数</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>合计中的当日校内发热学生人数</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>应到人数（要求到校人数）</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>实到人数（晨检人数）</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>因发热未到或请假（体温37.3或以上）</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>因其他原因未到或请假（除发热外）</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>校内晨检异常人数（体温异常）</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>校内晨检异常其他人数（如：咳嗽、腹泻等）</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>当日校内因发热送检人数（体温37.3或以上）</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>总计</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>绿码人数</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>黄码人数</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>红码人数</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
         <is>
           <t>橙码人数</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>未申领人数</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>接触过省外返衢对象的(学生数)</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>接触过境外返衢对象的(学生数)</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>与疫情中高风险地区、境外回衢人员接触的家长人数统计</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>乘坐公交车学生人数</t>
         </is>
       </c>
     </row>
@@ -736,55 +670,70 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>1792</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1791</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1790</v>
       </c>
       <c r="G2" t="n">
         <v>1791</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>1791</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">呃呃呃旺旺
-</t>
-        </is>
+      <c r="N2" t="n">
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>121212</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/整理后.xlsx
+++ b/整理后.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,19 @@
       <c r="C1" t="inlineStr">
         <is>
           <t>文字描述</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>是是是</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>呃呃呃</t>
         </is>
       </c>
     </row>
@@ -462,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +512,62 @@
       <c r="F1" t="inlineStr">
         <is>
           <t>请假原因</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>李悦鸣</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>喉咙不舒服</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>呃呃呃</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>三生三世</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>滚滚滚</t>
         </is>
       </c>
     </row>
@@ -535,7 +604,7 @@
     <col width="29.6" customWidth="1" min="12" max="12"/>
     <col width="40.8" customWidth="1" min="13" max="13"/>
     <col width="46.69999999999999" customWidth="1" min="14" max="14"/>
-    <col width="13.8" customWidth="1" min="15" max="15"/>
+    <col width="4.6" customWidth="1" min="15" max="15"/>
     <col width="9.199999999999999" customWidth="1" min="16" max="16"/>
     <col width="9.199999999999999" customWidth="1" min="17" max="17"/>
     <col width="9.199999999999999" customWidth="1" min="18" max="18"/>
@@ -670,7 +739,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1792</v>
@@ -685,19 +754,19 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1791</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>1791</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -709,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>121212</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -733,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/整理后.xlsx
+++ b/整理后.xlsx
@@ -516,7 +516,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>二年级二班</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>李悦鸣</t>
@@ -544,7 +548,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>三年级六班</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>呃呃呃</t>
@@ -582,7 +590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,28 +599,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9.199999999999999" customWidth="1" min="1" max="1"/>
-    <col width="20.7" customWidth="1" min="2" max="2"/>
-    <col width="46.69999999999999" customWidth="1" min="3" max="3"/>
+    <col width="15.8" customWidth="1" min="2" max="2"/>
+    <col width="15.8" customWidth="1" min="3" max="3"/>
     <col width="11.5" customWidth="1" min="4" max="4"/>
-    <col width="13.8" customWidth="1" min="5" max="5"/>
-    <col width="9.199999999999999" customWidth="1" min="6" max="6"/>
-    <col width="32.2" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="20.4" customWidth="1" min="9" max="9"/>
-    <col width="39.8" customWidth="1" min="10" max="10"/>
-    <col width="34.2" customWidth="1" min="11" max="11"/>
-    <col width="29.6" customWidth="1" min="12" max="12"/>
-    <col width="40.8" customWidth="1" min="13" max="13"/>
-    <col width="46.69999999999999" customWidth="1" min="14" max="14"/>
-    <col width="4.6" customWidth="1" min="15" max="15"/>
-    <col width="9.199999999999999" customWidth="1" min="16" max="16"/>
-    <col width="9.199999999999999" customWidth="1" min="17" max="17"/>
-    <col width="9.199999999999999" customWidth="1" min="18" max="18"/>
-    <col width="9.199999999999999" customWidth="1" min="19" max="19"/>
-    <col width="11.5" customWidth="1" min="20" max="20"/>
-    <col width="31.90000000000001" customWidth="1" min="21" max="21"/>
-    <col width="31.90000000000001" customWidth="1" min="22" max="22"/>
-    <col width="56.19999999999997" customWidth="1" min="23" max="23"/>
+    <col width="18.4" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="15.8" customWidth="1" min="7" max="7"/>
+    <col width="30.6" customWidth="1" min="8" max="8"/>
+    <col width="27.3" customWidth="1" min="9" max="9"/>
+    <col width="20.7" customWidth="1" min="10" max="10"/>
+    <col width="35.2" customWidth="1" min="11" max="11"/>
+    <col width="39.5" customWidth="1" min="12" max="12"/>
+    <col width="18.4" customWidth="1" min="13" max="13"/>
+    <col width="45.69999999999999" customWidth="1" min="14" max="14"/>
+    <col width="31.90000000000001" customWidth="1" min="15" max="15"/>
+    <col width="16.1" customWidth="1" min="16" max="16"/>
+    <col width="26.3" customWidth="1" min="17" max="17"/>
+    <col width="24" customWidth="1" min="18" max="18"/>
+    <col width="56.19999999999997" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -623,110 +627,90 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>乘坐公交车学生人数</t>
+          <t>应到人数(小学)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>数据为后三列之和，即内地学生+港澳台+留学生</t>
+          <t>实到人数(小学)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>内地学生数</t>
+          <t>未报到总数</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>港澳台学生数</t>
+          <t>因发热未报到人数</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>留学生数</t>
+          <t>因其他原因未报到人数</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>合计中的当日校内发热学生人数</t>
+          <t>请假总数(小学)</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>应到人数（要求到校人数）</t>
+          <t>因发热请假（体温37.3以上）</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>实到人数（晨检人数）</t>
+          <t>因咳嗽、腹泄、乏力请假人数</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>因发热未到或请假（体温37.3或以上）</t>
+          <t>因其他原因请假人数</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>因其他原因未到或请假（除发热外）</t>
+          <t>晨午检异常人数（体温37.3以上）</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>校内晨检异常人数（体温异常）</t>
+          <t>晨午检异常其他人数（如：咳嗽、腹泻等）：</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>校内晨检异常其他人数（如：咳嗽、腹泻等）</t>
+          <t>晨检午检异常描述</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>当日校内因发热送检人数（体温37.3或以上）</t>
+          <t>接触过疫情中高风险地区返衢对象的(学生数)</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>总计</t>
+          <t>接触过境外返衢对象的(学生数)</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>绿码人数</t>
+          <t>乘坐公交学生数</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>黄码人数</t>
+          <t>今日到校，港澳台学生几个</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>红码人数</t>
+          <t>今日到校，外籍学生几个</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
-        <is>
-          <t>橙码人数</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>未申领人数</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>接触过省外返衢对象的(学生数)</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>接触过境外返衢对象的(学生数)</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
         <is>
           <t>与疫情中高风险地区、境外回衢人员接触的家长人数统计</t>
         </is>
@@ -739,70 +723,41 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1791</v>
       </c>
       <c r="C2" t="n">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="D2" t="n">
-        <v>1791</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1791</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/整理后.xlsx
+++ b/整理后.xlsx
@@ -729,35 +729,50 @@
         <v>1789</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>2</v>
       </c>
-      <c r="E2" t="n">
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="n">
-        <v>5</v>
+      <c r="S2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
